--- a/biology/Botanique/Berteroa_blanc/Berteroa_blanc.xlsx
+++ b/biology/Botanique/Berteroa_blanc/Berteroa_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Alysson blanc (Berteroa incana) est une espèce de plante herbacée bisannuelle de la famille des Brassicacées.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Bartéroa blanchâtre est une plante dressée, grisâtre, poilue, haute de 25-60 cm. Les feuilles de 5 cm de long, les inférieures caduques et les inférieures sessiles. la fleur a des pétales blancs bifides de 4-6 mm. Les silicules de 4-6 mm de long et épais de 3-5 mm sont portés par un pédicelle dressé de 5-10 mm[1].
-La floraison a lieu de juin à septembre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Bartéroa blanchâtre est une plante dressée, grisâtre, poilue, haute de 25-60 cm. Les feuilles de 5 cm de long, les inférieures caduques et les inférieures sessiles. la fleur a des pétales blancs bifides de 4-6 mm. Les silicules de 4-6 mm de long et épais de 3-5 mm sont portés par un pédicelle dressé de 5-10 mm.
+La floraison a lieu de juin à septembre.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les Pyrénées, l'espèce est présente à l'étage montagnard[2].
-On considère que cette plante fait partie de la flore obsidionale de France[3].
-En Suisse on la trouve aux étages collinéen et montagnard. C'est une espèce typique des zones rudérales pluriannuelles mésophiles Dauco-mellilotion. Ce type de végétation est en recul au Nord des Alpes; Berteroa incana est menacée[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les Pyrénées, l'espèce est présente à l'étage montagnard.
+On considère que cette plante fait partie de la flore obsidionale de France.
+En Suisse on la trouve aux étages collinéen et montagnard. C'est une espèce typique des zones rudérales pluriannuelles mésophiles Dauco-mellilotion. Ce type de végétation est en recul au Nord des Alpes; Berteroa incana est menacée.
 </t>
         </is>
       </c>
